--- a/comissionsInfo.xlsx
+++ b/comissionsInfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,6 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,33 +478,2261 @@
           <t>Nro Operacion 2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Moneda</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="G2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>F001-0796</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C001-1423</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SANCHEZ SANCHEZ JOSE EDUARDO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>F001-0798</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C001-1418</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>02352524</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>F001-0795</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C001-1414</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17732</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>F001-0794</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C001-1412</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>93432</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>F001-0790</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C001-1397</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>383756</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>F001-0792</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C001-1405</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>384685</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CONTRATISTAS GENERALES GREICON S.A.C.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>F001-0791</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C001-1404</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DOLPHIN EXPRESS LM S.A.C.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>F001-0788</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C001-1391</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1114976</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONTRATISTAS GENERALES GREICON S.A.C.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>F001-0780</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C001-1379</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CORPORACION WALTER S.A.C.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>F001-0771</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C001-1362</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>500010101</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CORPORACION WALTER S.A.C.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>F001-0778</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C001-1375</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>500010101</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>JC CONSTRUCCIONES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>F001-0781</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C001-1380</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INDECON J &amp; L E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>F001-0779</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C001-1377</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1567180</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>F001-0785</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C001-1378</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INDECON J &amp; L E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>F001-0784</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C001-1382</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>179425</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KETITA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>F001-0783</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C001-1376</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>350470</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>F001-0782</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C001-1381</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>F001-0777</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C001-1373</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>81368</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>F001-0776</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C001-1368</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>F001-0756</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C001-1346</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONSORCIO CONSTRUCTOR RIO VITA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>F001-0772</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C001-1365</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1472272</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GOISHUETA MITMA FRANKLIN JHON</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>F001-0773</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C001-1364</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CORPORACION GARFISH S.A.C.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>F001-0761</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C001-1359</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>059078</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>F001-0757</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C001-1349</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>404159</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GOISHUETA MITMA FRANKLIN JHON</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>F001-0758</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C001-1352</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>F001-0760</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C001-1355</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>75021</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>F001-0755</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C001-1343</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>612522</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ALLMAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>F001-0517</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C001-0928</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2055146</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ALLMAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>F001-0568</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C001-1030</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2055146</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>F001-0753</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C001-1337</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>41282</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>INDECON J &amp; L E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>F001-0752</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C001-1336</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>128682</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>F001-0754</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C001-1329</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>773825</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ARV INGENIERIA Y CONSTRUCCION E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>F001-0750</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C001-1331</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>73826</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>F001-0751</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C001-1328</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>532812</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13-07-2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GRUPO VIMALCA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>F001-0749</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C001-1326</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1743593</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13-07-2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ASTILLEROS LUGUENSI S.A.C.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>F001-0748</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C001-1323</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2057590</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12-07-2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>COMERCIALIZADORA MALABRIGO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>F001-0747</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C001-1321</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1223282</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GRUPO VIMALCA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>F001-0742</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C001-1318</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>158231</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>INVERSIONES MARES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>F001-0744</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C001-1319</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>943030</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HAUG S.A.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>F001-0739</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C001-1309</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>408268</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ARV INGENIERIA Y CONSTRUCCION E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>F001-0740</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C001-1297</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>160245</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EMPRESA JEHOVA PODEROSO GIGANTE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>F001-0741</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C001-1312</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>F001-0738</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C001-1307</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>318751</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LR ARQUITECTURA &amp; CONSTRUCCIONES METALICAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>F001-0734</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>C001-1304</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>100850</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LR ARQUITECTURA &amp; CONSTRUCCIONES METALICAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>F001-0734</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C001-1304</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>100855</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AUSTRAL GROUP S.A.A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>F001-0702</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C001-1251</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>00003402</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AUSTRAL GROUP S.A.A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>F001-0717</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C001-1265</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>00003402</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>F001-0731</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C001-1282</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>154472</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NEGOCIOS E INVERSIONES DYLAN S.A.C.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>F001-0730</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>C001-1292</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>262448</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>F001-0728</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C001-1291</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>COMERCIALIZADORA FABIAN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>F001-0726</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C001-1288</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>367430</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>F001-0725</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C001-1287</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PESQUERA CALYPSO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>F001-0710</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>C001-1085</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>04716392</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PESQUERA CALYPSO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>F001-0709</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>C001-1083</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>04803943</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04-07-2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>R &amp; R CONSTRUCCIONES Y MONTAJES S.A.C.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>F001-0723</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>C001-1280</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>950268</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04-07-2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>F001-0724</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C001-1284</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6474</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>F001-0722</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>C001-1275</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>64492</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>COMERCIALIZADORA FABIAN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>F001-0720</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>C001-1269</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3053881</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PESQUERA R &amp; Z E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>F001-0718</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>C001-1268</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>516372</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>F001-0719</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>C001-1271</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>228330</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SUEN GOZZER EDILBERTO FELIX</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>F001-0721</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>C001-1270</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>146064</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ABEL DAMIAN FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>B001-0039</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>C001-1400</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1749194</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ANTHONY RONALD VILLON ORE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>B001-0036</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>C001-1371</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>919229</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANUEL LEANDRO SAGASTEGUI SORIA </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>B001-0037</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>C001-1372</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANUEL LEANDRO SAGASTEGUI SORIA </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>B001-0035</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>C001-1356</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1851584</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ANTHONY RONALD VILLON ORE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>B001-0034</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>C001-1345</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1234077</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Gino Vigil</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>B001-0033</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>C001-1338</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5063149</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>13-07-2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ANGEL ERIBERTO RODRIGUEZ POLO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>B001-0032</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>C001-1324</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2236576</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>JOSE ANDRES PIMINCHUMO GONZALES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>B001-0030</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>C001-1293</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>04911799</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" t="inlineStr">
         <is>
           <t xml:space="preserve">MONTO TOTAL: </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0E-54</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="G3" t="inlineStr">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>127702.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
         <is>
           <t xml:space="preserve">MONTO COMISION: </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.00</t>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1277.03</t>
         </is>
       </c>
     </row>

--- a/comissionsInfo.xlsx
+++ b/comissionsInfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,26 +497,3294 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>F001-0796</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C001-1423</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>179.28</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>179.28</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SANCHEZ SANCHEZ JOSE EDUARDO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>F001-0798</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C001-1418</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>416.88</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1501.60</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>02352524</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>F001-0795</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C001-1414</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>386.43</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>386.43</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>17732</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>F001-0794</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C001-1412</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2950.49</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2950.49</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>93432</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>F001-0790</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C001-1397</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>386.64</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>386.64</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>383756</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>F001-0792</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C001-1405</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>386.64</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>386.64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>384685</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CONTRATISTAS GENERALES GREICON S.A.C.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>F001-0791</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C001-1404</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>433.48</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>433.48</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DOLPHIN EXPRESS LM S.A.C.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>F001-0788</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C001-1391</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>354.50</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>354.50</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1114976</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONTRATISTAS GENERALES GREICON S.A.C.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>F001-0780</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C001-1379</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>748.71</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>748.71</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CORPORACION WALTER S.A.C.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>F001-0771</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C001-1362</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>834.13</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2996.19</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>500010101</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CORPORACION WALTER S.A.C.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>F001-0778</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C001-1375</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>108.88</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>500010101</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>JC CONSTRUCCIONES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>F001-0781</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C001-1380</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>258.44</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>258.44</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INDECON J &amp; L E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>F001-0779</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C001-1377</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1118.64</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1118.64</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1567180</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>F001-0785</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C001-1378</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>309.42</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1110.20</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INDECON J &amp; L E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>F001-0784</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C001-1382</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>441.53</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>441.53</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>179425</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KETITA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>F001-0783</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C001-1376</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4387.23</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4387.23</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>350470</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>F001-0782</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C001-1381</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>546.48</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1962.41</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>F001-0777</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C001-1373</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>379.51</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>379.51</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>81368</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>F001-0776</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C001-1368</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>383.20</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1376.45</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>F001-0756</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C001-1346</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3546.79</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>12615.93</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONSORCIO CONSTRUCTOR RIO VITA S.R.L.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>F001-0772</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C001-1365</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>404.25</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>404.25</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1472272</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GOISHUETA MITMA FRANKLIN JHON</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>F001-0773</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C001-1364</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>996.65</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>996.65</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CORPORACION GARFISH S.A.C.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>F001-0761</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C001-1359</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>354.13</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>354.13</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>059078</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>F001-0757</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C001-1349</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1053.81</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1053.81</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>404159</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GOISHUETA MITMA FRANKLIN JHON</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>F001-0758</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C001-1352</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>346.61</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>346.61</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TITAN INGENIEROS ASOCIADOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>F001-0760</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C001-1355</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>774.96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>774.96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>75021</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>F001-0755</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C001-1343</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>131.30</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>612522</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ALLMAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>F001-0517</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C001-0928</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>383.20</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1441.22</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2055146</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ALLMAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>F001-0568</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C001-1030</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>155.29</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2055146</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>F001-0753</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C001-1337</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>431.30</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>431.30</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>41282</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>INDECON J &amp; L E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>F001-0752</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C001-1336</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10229.63</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10229.63</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>128682</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>F001-0754</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C001-1329</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>210.36</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>210.36</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>773825</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ARV INGENIERIA Y CONSTRUCCION E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>F001-0750</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C001-1331</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1906.80</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1906.80</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>73826</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BIOZA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>F001-0751</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C001-1328</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2998.16</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2998.16</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>532812</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13-07-2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GRUPO VIMALCA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>F001-0749</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C001-1326</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1743593</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13-07-2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ASTILLEROS LUGUENSI S.A.C.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>F001-0748</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C001-1323</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>183.87</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>183.87</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2057590</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12-07-2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>COMERCIALIZADORA MALABRIGO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>F001-0747</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C001-1321</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1007.47</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1007.47</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1223282</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GRUPO VIMALCA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>F001-0742</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C001-1318</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>410.41</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>410.41</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>158231</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>INVERSIONES MARES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>F001-0744</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C001-1319</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1336.80</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1336.80</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>943030</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HAUG S.A.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>F001-0739</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C001-1309</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>237.02</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>237.02</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>408268</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ARV INGENIERIA Y CONSTRUCCION E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>F001-0740</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C001-1297</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2860.20</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2860.20</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>160245</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EMPRESA JEHOVA PODEROSO GIGANTE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>F001-0741</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C001-1312</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>7415.84</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>27015.91</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08-07-2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>F001-0738</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C001-1307</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>363.12</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>363.12</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>318751</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LR ARQUITECTURA &amp; CONSTRUCCIONES METALICAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>F001-0734</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>C001-1304</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1322.79</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1322.79</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>100850</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07-07-2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LR ARQUITECTURA &amp; CONSTRUCCIONES METALICAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>F001-0734</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C001-1304</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1322.79</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1322.79</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>100855</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AUSTRAL GROUP S.A.A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>F001-0702</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C001-1251</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>17337.50</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>17337.50</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>00003402</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SCOTIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AUSTRAL GROUP S.A.A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>F001-0717</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C001-1265</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>21350.00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>21350.00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>00003402</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>F001-0731</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C001-1282</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1202.94</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>4371.48</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>154472</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NEGOCIOS E INVERSIONES DYLAN S.A.C.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>F001-0730</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>C001-1292</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>501.66</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1823.03</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>262448</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>F001-0728</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C001-1291</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1287.83</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>4679.97</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>COMERCIALIZADORA FABIAN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>F001-0726</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C001-1288</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2984.46</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2984.46</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>367430</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>F001-0725</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C001-1287</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1802.10</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>6548.83</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PESQUERA CALYPSO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>F001-0710</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>C001-1085</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1114.19</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>4076.82</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>04716392</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PESQUERA CALYPSO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>F001-0709</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>C001-1083</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1114.19</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>4076.82</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>04803943</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04-07-2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>R &amp; R CONSTRUCCIONES Y MONTAJES S.A.C.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>F001-0723</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>C001-1280</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>439.40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>439.40</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>950268</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04-07-2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>F001-0724</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C001-1284</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>239.50</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>869.38</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>6474</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>F001-0722</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>C001-1275</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>326.34</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1185.59</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>64492</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>COMERCIALIZADORA FABIAN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>F001-0720</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>C001-1269</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>225.34</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>818.66</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>3053881</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PESQUERA R &amp; Z E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>F001-0718</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>C001-1268</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1073.75</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>3900.93</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>516372</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>F001-0719</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>C001-1271</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>164.44</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>597.41</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>228330</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>03-07-2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SUEN GOZZER EDILBERTO FELIX</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>F001-0721</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>C001-1270</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>317.80</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>317.80</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>146064</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ABEL DAMIAN FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>B001-0039</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>C001-1400</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1749194</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ANTHONY RONALD VILLON ORE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>B001-0036</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>C001-1371</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>919229</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22-07-2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANUEL LEANDRO SAGASTEGUI SORIA </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>B001-0037</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>C001-1372</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20-07-2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANUEL LEANDRO SAGASTEGUI SORIA </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>B001-0035</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>C001-1356</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>130.64</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>130.64</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1851584</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>18-07-2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ANTHONY RONALD VILLON ORE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>B001-0034</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>C001-1345</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1234077</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Gino Vigil</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>B001-0033</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>C001-1338</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>5063149</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>13-07-2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ANGEL ERIBERTO RODRIGUEZ POLO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>B001-0032</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>C001-1324</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>317.42</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>317.42</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2236576</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BCP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>JOSE ANDRES PIMINCHUMO GONZALES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>B001-0030</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>C001-1293</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>04911799</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="inlineStr">
+        <is>
           <t xml:space="preserve">MONTO TOTAL: </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0E-54</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="G3" t="inlineStr">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>127702.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72" t="inlineStr">
         <is>
           <t xml:space="preserve">MONTO COMISION: </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.00</t>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1277.03</t>
         </is>
       </c>
     </row>

--- a/comissionsInfo.xlsx
+++ b/comissionsInfo.xlsx
@@ -3772,7 +3772,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>127702.71</t>
+          <t>166394.91</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1277.03</t>
+          <t>1663.95</t>
         </is>
       </c>
     </row>
